--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffaf2dc046489a30/Documents/2. Courses/PSY310/Experiments/T7_Delay Discounting Task/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffaf2dc046489a30/Documents/2. Courses/PSY310/Experiments/T7_Delay Discounting Task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A4300AAD-5257-42CF-9488-13C218438CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{445C40B7-8094-4134-8D64-CDA6CEC6A21C}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{A4300AAD-5257-42CF-9488-13C218438CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66A11831-C212-4991-8655-7C0F4830BBDE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71BA666D-9DC3-4AC8-B10A-E0725DD74A02}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="15">
   <si>
     <t>[(future reward/immediate)-1]/delay</t>
   </si>
@@ -74,6 +74,12 @@
   <si>
     <t>k</t>
   </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -200,23 +206,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,6 +285,1080 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Estimated discounting value (k value)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01'!$B$111</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'01'!$D$112:$D$115</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.2466398050050018E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.3703728656169882E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.8614829933197057E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.8614829933197057E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'01'!$D$112:$D$115</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.2466398050050018E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.3703728656169882E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.8614829933197057E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.8614829933197057E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>'01'!$A$112:$A$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'01'!$B$112:$B$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.9059177013573507E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5908799583173262E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9055398349167647E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9055398349167647E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C7EF-44C6-9DB3-E807BB2E7D37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1353605711"/>
+        <c:axId val="1353608111"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1353605711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>No. of participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1353608111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1353608111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>k value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1353605711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62D2A2D-F089-7C39-4E8C-922C24C3E1AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,42 +1661,42 @@
   <dimension ref="A1:W115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="S1" s="1" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="S1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -647,7 +1774,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <f>((B3/A3)-1)/C3</f>
+        <f t="shared" ref="E3:E34" si="0">((B3/A3)-1)/C3</f>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="G3">
@@ -656,14 +1783,14 @@
       <c r="H3">
         <v>80</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3">
         <v>162</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" t="s">
         <v>6</v>
       </c>
       <c r="K3">
-        <f>((H3/G3)-1)/I3</f>
+        <f t="shared" ref="K3:K34" si="1">((H3/G3)-1)/I3</f>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="M3">
@@ -679,7 +1806,7 @@
         <v>5</v>
       </c>
       <c r="Q3">
-        <f>((N3-M3)-1)/O3</f>
+        <f t="shared" ref="Q3:Q34" si="2">((N3-M3)-1)/O3</f>
         <v>6.1728395061728392E-3</v>
       </c>
       <c r="S3">
@@ -695,7 +1822,7 @@
         <v>6</v>
       </c>
       <c r="W3">
-        <f>((T3-S3)-1)/U3</f>
+        <f t="shared" ref="W3:W34" si="3">((T3-S3)-1)/U3</f>
         <v>6.1728395061728392E-3</v>
       </c>
     </row>
@@ -713,7 +1840,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <f>((B4/A4)-1)/C4</f>
+        <f t="shared" si="0"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="G4">
@@ -729,7 +1856,7 @@
         <v>6</v>
       </c>
       <c r="K4">
-        <f>((H4/G4)-1)/I4</f>
+        <f t="shared" si="1"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="M4">
@@ -745,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="Q4">
-        <f>((N4-M4)-1)/O4</f>
+        <f t="shared" si="2"/>
         <v>6.1728395061728392E-3</v>
       </c>
       <c r="S4">
@@ -761,7 +1888,7 @@
         <v>6</v>
       </c>
       <c r="W4">
-        <f>((T4-S4)-1)/U4</f>
+        <f t="shared" si="3"/>
         <v>6.1728395061728392E-3</v>
       </c>
     </row>
@@ -779,7 +1906,7 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <f>((B5/A5)-1)/C5</f>
+        <f t="shared" si="0"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="G5">
@@ -795,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <f>((H5/G5)-1)/I5</f>
+        <f t="shared" si="1"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="M5">
@@ -811,7 +1938,7 @@
         <v>6</v>
       </c>
       <c r="Q5">
-        <f>((N5-M5)-1)/O5</f>
+        <f t="shared" si="2"/>
         <v>6.1728395061728392E-3</v>
       </c>
       <c r="S5">
@@ -827,7 +1954,7 @@
         <v>6</v>
       </c>
       <c r="W5">
-        <f>((T5-S5)-1)/U5</f>
+        <f t="shared" si="3"/>
         <v>6.1728395061728392E-3</v>
       </c>
     </row>
@@ -845,7 +1972,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <f>((B6/A6)-1)/C6</f>
+        <f t="shared" si="0"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="G6">
@@ -861,7 +1988,7 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <f>((H6/G6)-1)/I6</f>
+        <f t="shared" si="1"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="M6">
@@ -877,7 +2004,7 @@
         <v>6</v>
       </c>
       <c r="Q6">
-        <f>((N6-M6)-1)/O6</f>
+        <f t="shared" si="2"/>
         <v>6.1728395061728392E-3</v>
       </c>
       <c r="S6">
@@ -893,7 +2020,7 @@
         <v>6</v>
       </c>
       <c r="W6">
-        <f>((T6-S6)-1)/U6</f>
+        <f t="shared" si="3"/>
         <v>6.1728395061728392E-3</v>
       </c>
     </row>
@@ -911,7 +2038,7 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <f>((B7/A7)-1)/C7</f>
+        <f t="shared" si="0"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="G7">
@@ -927,7 +2054,7 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <f>((H7/G7)-1)/I7</f>
+        <f t="shared" si="1"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="M7">
@@ -943,7 +2070,7 @@
         <v>6</v>
       </c>
       <c r="Q7">
-        <f>((N7-M7)-1)/O7</f>
+        <f t="shared" si="2"/>
         <v>6.1728395061728392E-3</v>
       </c>
       <c r="S7">
@@ -959,7 +2086,7 @@
         <v>6</v>
       </c>
       <c r="W7">
-        <f>((T7-S7)-1)/U7</f>
+        <f t="shared" si="3"/>
         <v>6.1728395061728392E-3</v>
       </c>
     </row>
@@ -977,7 +2104,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <f>((B8/A8)-1)/C8</f>
+        <f t="shared" si="0"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="G8">
@@ -993,7 +2120,7 @@
         <v>6</v>
       </c>
       <c r="K8">
-        <f>((H8/G8)-1)/I8</f>
+        <f t="shared" si="1"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="M8">
@@ -1009,7 +2136,7 @@
         <v>6</v>
       </c>
       <c r="Q8">
-        <f>((N8-M8)-1)/O8</f>
+        <f t="shared" si="2"/>
         <v>6.1728395061728392E-3</v>
       </c>
       <c r="S8">
@@ -1025,7 +2152,7 @@
         <v>6</v>
       </c>
       <c r="W8">
-        <f>((T8-S8)-1)/U8</f>
+        <f t="shared" si="3"/>
         <v>6.1728395061728392E-3</v>
       </c>
     </row>
@@ -1043,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <f>((B9/A9)-1)/C9</f>
+        <f t="shared" si="0"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="G9">
@@ -1059,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="K9">
-        <f>((H9/G9)-1)/I9</f>
+        <f t="shared" si="1"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="M9">
@@ -1075,7 +2202,7 @@
         <v>6</v>
       </c>
       <c r="Q9">
-        <f>((N9-M9)-1)/O9</f>
+        <f t="shared" si="2"/>
         <v>6.1728395061728392E-3</v>
       </c>
       <c r="S9">
@@ -1091,7 +2218,7 @@
         <v>6</v>
       </c>
       <c r="W9">
-        <f>((T9-S9)-1)/U9</f>
+        <f t="shared" si="3"/>
         <v>6.1728395061728392E-3</v>
       </c>
     </row>
@@ -1109,7 +2236,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <f>((B10/A10)-1)/C10</f>
+        <f t="shared" si="0"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="G10">
@@ -1125,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="K10">
-        <f>((H10/G10)-1)/I10</f>
+        <f t="shared" si="1"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="M10">
@@ -1141,7 +2268,7 @@
         <v>6</v>
       </c>
       <c r="Q10">
-        <f>((N10-M10)-1)/O10</f>
+        <f t="shared" si="2"/>
         <v>6.1728395061728392E-3</v>
       </c>
       <c r="S10">
@@ -1157,7 +2284,7 @@
         <v>6</v>
       </c>
       <c r="W10">
-        <f>((T10-S10)-1)/U10</f>
+        <f t="shared" si="3"/>
         <v>6.1728395061728392E-3</v>
       </c>
     </row>
@@ -1175,7 +2302,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <f>((B11/A11)-1)/C11</f>
+        <f t="shared" si="0"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="G11">
@@ -1191,7 +2318,7 @@
         <v>6</v>
       </c>
       <c r="K11">
-        <f>((H11/G11)-1)/I11</f>
+        <f t="shared" si="1"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="M11">
@@ -1207,7 +2334,7 @@
         <v>6</v>
       </c>
       <c r="Q11">
-        <f>((N11-M11)-1)/O11</f>
+        <f t="shared" si="2"/>
         <v>6.1728395061728392E-3</v>
       </c>
       <c r="S11">
@@ -1223,7 +2350,7 @@
         <v>6</v>
       </c>
       <c r="W11">
-        <f>((T11-S11)-1)/U11</f>
+        <f t="shared" si="3"/>
         <v>6.1728395061728392E-3</v>
       </c>
     </row>
@@ -1241,7 +2368,7 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <f>((B12/A12)-1)/C12</f>
+        <f t="shared" si="0"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="G12">
@@ -1257,7 +2384,7 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <f>((H12/G12)-1)/I12</f>
+        <f t="shared" si="1"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="M12">
@@ -1273,7 +2400,7 @@
         <v>6</v>
       </c>
       <c r="Q12">
-        <f>((N12-M12)-1)/O12</f>
+        <f t="shared" si="2"/>
         <v>6.1728395061728392E-3</v>
       </c>
       <c r="S12">
@@ -1289,7 +2416,7 @@
         <v>6</v>
       </c>
       <c r="W12">
-        <f>((T12-S12)-1)/U12</f>
+        <f t="shared" si="3"/>
         <v>6.1728395061728392E-3</v>
       </c>
     </row>
@@ -1307,7 +2434,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <f>((B13/A13)-1)/C13</f>
+        <f t="shared" si="0"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="G13">
@@ -1323,7 +2450,7 @@
         <v>6</v>
       </c>
       <c r="K13">
-        <f>((H13/G13)-1)/I13</f>
+        <f t="shared" si="1"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="M13">
@@ -1339,7 +2466,7 @@
         <v>6</v>
       </c>
       <c r="Q13">
-        <f>((N13-M13)-1)/O13</f>
+        <f t="shared" si="2"/>
         <v>6.1728395061728392E-3</v>
       </c>
       <c r="S13">
@@ -1355,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="W13">
-        <f>((T13-S13)-1)/U13</f>
+        <f t="shared" si="3"/>
         <v>6.1728395061728392E-3</v>
       </c>
     </row>
@@ -1373,7 +2500,7 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <f>((B14/A14)-1)/C14</f>
+        <f t="shared" si="0"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="G14">
@@ -1389,7 +2516,7 @@
         <v>6</v>
       </c>
       <c r="K14">
-        <f>((H14/G14)-1)/I14</f>
+        <f t="shared" si="1"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="M14">
@@ -1405,7 +2532,7 @@
         <v>6</v>
       </c>
       <c r="Q14">
-        <f>((N14-M14)-1)/O14</f>
+        <f t="shared" si="2"/>
         <v>6.1728395061728392E-3</v>
       </c>
       <c r="S14">
@@ -1421,7 +2548,7 @@
         <v>6</v>
       </c>
       <c r="W14">
-        <f>((T14-S14)-1)/U14</f>
+        <f t="shared" si="3"/>
         <v>6.1728395061728392E-3</v>
       </c>
     </row>
@@ -1439,7 +2566,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <f>((B15/A15)-1)/C15</f>
+        <f t="shared" si="0"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="G15">
@@ -1455,7 +2582,7 @@
         <v>6</v>
       </c>
       <c r="K15">
-        <f>((H15/G15)-1)/I15</f>
+        <f t="shared" si="1"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="M15">
@@ -1471,7 +2598,7 @@
         <v>6</v>
       </c>
       <c r="Q15">
-        <f>((N15-M15)-1)/O15</f>
+        <f t="shared" si="2"/>
         <v>6.1728395061728392E-3</v>
       </c>
       <c r="S15">
@@ -1487,7 +2614,7 @@
         <v>6</v>
       </c>
       <c r="W15">
-        <f>((T15-S15)-1)/U15</f>
+        <f t="shared" si="3"/>
         <v>6.1728395061728392E-3</v>
       </c>
     </row>
@@ -1505,7 +2632,7 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <f>((B16/A16)-1)/C16</f>
+        <f t="shared" si="0"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="G16">
@@ -1521,7 +2648,7 @@
         <v>6</v>
       </c>
       <c r="K16">
-        <f>((H16/G16)-1)/I16</f>
+        <f t="shared" si="1"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="M16">
@@ -1537,7 +2664,7 @@
         <v>6</v>
       </c>
       <c r="Q16">
-        <f>((N16-M16)-1)/O16</f>
+        <f t="shared" si="2"/>
         <v>6.1728395061728392E-3</v>
       </c>
       <c r="S16">
@@ -1553,7 +2680,7 @@
         <v>6</v>
       </c>
       <c r="W16">
-        <f>((T16-S16)-1)/U16</f>
+        <f t="shared" si="3"/>
         <v>6.1728395061728392E-3</v>
       </c>
     </row>
@@ -1571,7 +2698,7 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <f>((B17/A17)-1)/C17</f>
+        <f t="shared" si="0"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="G17">
@@ -1587,7 +2714,7 @@
         <v>6</v>
       </c>
       <c r="K17">
-        <f>((H17/G17)-1)/I17</f>
+        <f t="shared" si="1"/>
         <v>1.5827793605571326E-4</v>
       </c>
       <c r="M17">
@@ -1599,11 +2726,11 @@
       <c r="O17">
         <v>162</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q17" s="2">
-        <f>((N17-M17)-1)/O17</f>
+      <c r="P17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="2"/>
         <v>6.1728395061728392E-3</v>
       </c>
       <c r="S17">
@@ -1615,11 +2742,11 @@
       <c r="U17">
         <v>162</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W17" s="2">
-        <f>((T17-S17)-1)/U17</f>
+      <c r="V17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="3"/>
         <v>6.1728395061728392E-3</v>
       </c>
     </row>
@@ -1630,14 +2757,14 @@
       <c r="B18">
         <v>75</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>119</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18">
-        <f>((B18/A18)-1)/C18</f>
+        <f t="shared" si="0"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="G18">
@@ -1653,7 +2780,7 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <f>((H18/G18)-1)/I18</f>
+        <f t="shared" si="1"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="M18">
@@ -1665,11 +2792,11 @@
       <c r="O18">
         <v>119</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="2">
-        <f>((N18-M18)-1)/O18</f>
+      <c r="P18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="S18">
@@ -1681,11 +2808,11 @@
       <c r="U18">
         <v>119</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="2">
-        <f>((T18-S18)-1)/U18</f>
+      <c r="V18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -1703,7 +2830,7 @@
         <v>6</v>
       </c>
       <c r="E19">
-        <f>((B19/A19)-1)/C19</f>
+        <f t="shared" si="0"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="G19">
@@ -1719,7 +2846,7 @@
         <v>6</v>
       </c>
       <c r="K19">
-        <f>((H19/G19)-1)/I19</f>
+        <f t="shared" si="1"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="M19">
@@ -1735,7 +2862,7 @@
         <v>5</v>
       </c>
       <c r="Q19">
-        <f>((N19-M19)-1)/O19</f>
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="S19">
@@ -1751,7 +2878,7 @@
         <v>6</v>
       </c>
       <c r="W19">
-        <f>((T19-S19)-1)/U19</f>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -1769,7 +2896,7 @@
         <v>6</v>
       </c>
       <c r="E20">
-        <f>((B20/A20)-1)/C20</f>
+        <f t="shared" si="0"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="G20">
@@ -1785,7 +2912,7 @@
         <v>6</v>
       </c>
       <c r="K20">
-        <f>((H20/G20)-1)/I20</f>
+        <f t="shared" si="1"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="M20">
@@ -1801,7 +2928,7 @@
         <v>6</v>
       </c>
       <c r="Q20">
-        <f>((N20-M20)-1)/O20</f>
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="S20">
@@ -1817,7 +2944,7 @@
         <v>6</v>
       </c>
       <c r="W20">
-        <f>((T20-S20)-1)/U20</f>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -1835,7 +2962,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <f>((B21/A21)-1)/C21</f>
+        <f t="shared" si="0"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="G21">
@@ -1851,7 +2978,7 @@
         <v>6</v>
       </c>
       <c r="K21">
-        <f>((H21/G21)-1)/I21</f>
+        <f t="shared" si="1"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="M21">
@@ -1867,7 +2994,7 @@
         <v>6</v>
       </c>
       <c r="Q21">
-        <f>((N21-M21)-1)/O21</f>
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="S21">
@@ -1883,7 +3010,7 @@
         <v>6</v>
       </c>
       <c r="W21">
-        <f>((T21-S21)-1)/U21</f>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -1901,7 +3028,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <f>((B22/A22)-1)/C22</f>
+        <f t="shared" si="0"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="G22">
@@ -1917,7 +3044,7 @@
         <v>6</v>
       </c>
       <c r="K22">
-        <f>((H22/G22)-1)/I22</f>
+        <f t="shared" si="1"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="M22">
@@ -1933,7 +3060,7 @@
         <v>6</v>
       </c>
       <c r="Q22">
-        <f>((N22-M22)-1)/O22</f>
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="S22">
@@ -1949,7 +3076,7 @@
         <v>6</v>
       </c>
       <c r="W22">
-        <f>((T22-S22)-1)/U22</f>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -1967,7 +3094,7 @@
         <v>6</v>
       </c>
       <c r="E23">
-        <f>((B23/A23)-1)/C23</f>
+        <f t="shared" si="0"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="G23">
@@ -1983,7 +3110,7 @@
         <v>6</v>
       </c>
       <c r="K23">
-        <f>((H23/G23)-1)/I23</f>
+        <f t="shared" si="1"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="M23">
@@ -1999,7 +3126,7 @@
         <v>6</v>
       </c>
       <c r="Q23">
-        <f>((N23-M23)-1)/O23</f>
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="S23">
@@ -2015,7 +3142,7 @@
         <v>6</v>
       </c>
       <c r="W23">
-        <f>((T23-S23)-1)/U23</f>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -2033,7 +3160,7 @@
         <v>6</v>
       </c>
       <c r="E24">
-        <f>((B24/A24)-1)/C24</f>
+        <f t="shared" si="0"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="G24">
@@ -2049,7 +3176,7 @@
         <v>6</v>
       </c>
       <c r="K24">
-        <f>((H24/G24)-1)/I24</f>
+        <f t="shared" si="1"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="M24">
@@ -2065,7 +3192,7 @@
         <v>6</v>
       </c>
       <c r="Q24">
-        <f>((N24-M24)-1)/O24</f>
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="S24">
@@ -2081,7 +3208,7 @@
         <v>6</v>
       </c>
       <c r="W24">
-        <f>((T24-S24)-1)/U24</f>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -2099,7 +3226,7 @@
         <v>6</v>
       </c>
       <c r="E25">
-        <f>((B25/A25)-1)/C25</f>
+        <f t="shared" si="0"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="G25">
@@ -2115,7 +3242,7 @@
         <v>6</v>
       </c>
       <c r="K25">
-        <f>((H25/G25)-1)/I25</f>
+        <f t="shared" si="1"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="M25">
@@ -2131,7 +3258,7 @@
         <v>6</v>
       </c>
       <c r="Q25">
-        <f>((N25-M25)-1)/O25</f>
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="S25">
@@ -2147,7 +3274,7 @@
         <v>6</v>
       </c>
       <c r="W25">
-        <f>((T25-S25)-1)/U25</f>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -2165,7 +3292,7 @@
         <v>6</v>
       </c>
       <c r="E26">
-        <f>((B26/A26)-1)/C26</f>
+        <f t="shared" si="0"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="G26">
@@ -2181,7 +3308,7 @@
         <v>6</v>
       </c>
       <c r="K26">
-        <f>((H26/G26)-1)/I26</f>
+        <f t="shared" si="1"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="M26">
@@ -2197,7 +3324,7 @@
         <v>6</v>
       </c>
       <c r="Q26">
-        <f>((N26-M26)-1)/O26</f>
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="S26">
@@ -2213,7 +3340,7 @@
         <v>6</v>
       </c>
       <c r="W26">
-        <f>((T26-S26)-1)/U26</f>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -2231,7 +3358,7 @@
         <v>6</v>
       </c>
       <c r="E27">
-        <f>((B27/A27)-1)/C27</f>
+        <f t="shared" si="0"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="G27">
@@ -2247,7 +3374,7 @@
         <v>6</v>
       </c>
       <c r="K27">
-        <f>((H27/G27)-1)/I27</f>
+        <f t="shared" si="1"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="M27">
@@ -2263,7 +3390,7 @@
         <v>6</v>
       </c>
       <c r="Q27">
-        <f>((N27-M27)-1)/O27</f>
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="S27">
@@ -2279,7 +3406,7 @@
         <v>6</v>
       </c>
       <c r="W27">
-        <f>((T27-S27)-1)/U27</f>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -2297,7 +3424,7 @@
         <v>6</v>
       </c>
       <c r="E28">
-        <f>((B28/A28)-1)/C28</f>
+        <f t="shared" si="0"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="G28">
@@ -2313,7 +3440,7 @@
         <v>6</v>
       </c>
       <c r="K28">
-        <f>((H28/G28)-1)/I28</f>
+        <f t="shared" si="1"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="M28">
@@ -2329,7 +3456,7 @@
         <v>6</v>
       </c>
       <c r="Q28">
-        <f>((N28-M28)-1)/O28</f>
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="S28">
@@ -2345,7 +3472,7 @@
         <v>6</v>
       </c>
       <c r="W28">
-        <f>((T28-S28)-1)/U28</f>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -2363,7 +3490,7 @@
         <v>6</v>
       </c>
       <c r="E29">
-        <f>((B29/A29)-1)/C29</f>
+        <f t="shared" si="0"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="G29">
@@ -2379,7 +3506,7 @@
         <v>6</v>
       </c>
       <c r="K29">
-        <f>((H29/G29)-1)/I29</f>
+        <f t="shared" si="1"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="M29">
@@ -2395,7 +3522,7 @@
         <v>6</v>
       </c>
       <c r="Q29">
-        <f>((N29-M29)-1)/O29</f>
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="S29">
@@ -2411,7 +3538,7 @@
         <v>6</v>
       </c>
       <c r="W29">
-        <f>((T29-S29)-1)/U29</f>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -2429,7 +3556,7 @@
         <v>6</v>
       </c>
       <c r="E30">
-        <f>((B30/A30)-1)/C30</f>
+        <f t="shared" si="0"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="G30">
@@ -2445,7 +3572,7 @@
         <v>6</v>
       </c>
       <c r="K30">
-        <f>((H30/G30)-1)/I30</f>
+        <f t="shared" si="1"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="M30">
@@ -2461,7 +3588,7 @@
         <v>6</v>
       </c>
       <c r="Q30">
-        <f>((N30-M30)-1)/O30</f>
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="S30">
@@ -2477,7 +3604,7 @@
         <v>6</v>
       </c>
       <c r="W30">
-        <f>((T30-S30)-1)/U30</f>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -2495,7 +3622,7 @@
         <v>6</v>
       </c>
       <c r="E31">
-        <f>((B31/A31)-1)/C31</f>
+        <f t="shared" si="0"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="G31">
@@ -2511,7 +3638,7 @@
         <v>6</v>
       </c>
       <c r="K31">
-        <f>((H31/G31)-1)/I31</f>
+        <f t="shared" si="1"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="M31">
@@ -2527,7 +3654,7 @@
         <v>6</v>
       </c>
       <c r="Q31">
-        <f>((N31-M31)-1)/O31</f>
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="S31">
@@ -2543,7 +3670,7 @@
         <v>6</v>
       </c>
       <c r="W31">
-        <f>((T31-S31)-1)/U31</f>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -2561,7 +3688,7 @@
         <v>6</v>
       </c>
       <c r="E32">
-        <f>((B32/A32)-1)/C32</f>
+        <f t="shared" si="0"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="G32">
@@ -2573,11 +3700,11 @@
       <c r="I32">
         <v>119</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K32" s="2">
-        <f>((H32/G32)-1)/I32</f>
+      <c r="J32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="1"/>
         <v>1.0033864291985443E-3</v>
       </c>
       <c r="M32">
@@ -2593,7 +3720,7 @@
         <v>6</v>
       </c>
       <c r="Q32">
-        <f>((N32-M32)-1)/O32</f>
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="S32">
@@ -2609,7 +3736,7 @@
         <v>6</v>
       </c>
       <c r="W32">
-        <f>((T32-S32)-1)/U32</f>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -2627,7 +3754,7 @@
         <v>6</v>
       </c>
       <c r="E33">
-        <f>((B33/A33)-1)/C33</f>
+        <f t="shared" si="0"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="G33">
@@ -2639,11 +3766,11 @@
       <c r="I33">
         <v>89</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="2">
-        <f>((H33/G33)-1)/I33</f>
+      <c r="J33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="1"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="M33">
@@ -2659,7 +3786,7 @@
         <v>5</v>
       </c>
       <c r="Q33">
-        <f>((N33-M33)-1)/O33</f>
+        <f t="shared" si="2"/>
         <v>0.11235955056179775</v>
       </c>
       <c r="S33">
@@ -2675,7 +3802,7 @@
         <v>5</v>
       </c>
       <c r="W33">
-        <f>((T33-S33)-1)/U33</f>
+        <f t="shared" si="3"/>
         <v>0.11235955056179775</v>
       </c>
     </row>
@@ -2693,7 +3820,7 @@
         <v>6</v>
       </c>
       <c r="E34">
-        <f>((B34/A34)-1)/C34</f>
+        <f t="shared" si="0"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="G34">
@@ -2709,7 +3836,7 @@
         <v>5</v>
       </c>
       <c r="K34">
-        <f>((H34/G34)-1)/I34</f>
+        <f t="shared" si="1"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="M34">
@@ -2725,7 +3852,7 @@
         <v>5</v>
       </c>
       <c r="Q34">
-        <f>((N34-M34)-1)/O34</f>
+        <f t="shared" si="2"/>
         <v>0.11235955056179775</v>
       </c>
       <c r="S34">
@@ -2741,7 +3868,7 @@
         <v>5</v>
       </c>
       <c r="W34">
-        <f>((T34-S34)-1)/U34</f>
+        <f t="shared" si="3"/>
         <v>0.11235955056179775</v>
       </c>
     </row>
@@ -2759,7 +3886,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <f>((B35/A35)-1)/C35</f>
+        <f t="shared" ref="E35:E66" si="4">((B35/A35)-1)/C35</f>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="G35">
@@ -2775,7 +3902,7 @@
         <v>6</v>
       </c>
       <c r="K35">
-        <f>((H35/G35)-1)/I35</f>
+        <f t="shared" ref="K35:K66" si="5">((H35/G35)-1)/I35</f>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="M35">
@@ -2791,7 +3918,7 @@
         <v>5</v>
       </c>
       <c r="Q35">
-        <f>((N35-M35)-1)/O35</f>
+        <f t="shared" ref="Q35:Q66" si="6">((N35-M35)-1)/O35</f>
         <v>0.11235955056179775</v>
       </c>
       <c r="S35">
@@ -2807,7 +3934,7 @@
         <v>5</v>
       </c>
       <c r="W35">
-        <f>((T35-S35)-1)/U35</f>
+        <f t="shared" ref="W35:W66" si="7">((T35-S35)-1)/U35</f>
         <v>0.11235955056179775</v>
       </c>
     </row>
@@ -2825,7 +3952,7 @@
         <v>6</v>
       </c>
       <c r="E36">
-        <f>((B36/A36)-1)/C36</f>
+        <f t="shared" si="4"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="G36">
@@ -2841,7 +3968,7 @@
         <v>6</v>
       </c>
       <c r="K36">
-        <f>((H36/G36)-1)/I36</f>
+        <f t="shared" si="5"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="M36">
@@ -2857,7 +3984,7 @@
         <v>5</v>
       </c>
       <c r="Q36">
-        <f>((N36-M36)-1)/O36</f>
+        <f t="shared" si="6"/>
         <v>0.11235955056179775</v>
       </c>
       <c r="S36">
@@ -2873,7 +4000,7 @@
         <v>5</v>
       </c>
       <c r="W36">
-        <f>((T36-S36)-1)/U36</f>
+        <f t="shared" si="7"/>
         <v>0.11235955056179775</v>
       </c>
     </row>
@@ -2891,7 +4018,7 @@
         <v>6</v>
       </c>
       <c r="E37">
-        <f>((B37/A37)-1)/C37</f>
+        <f t="shared" si="4"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="G37">
@@ -2907,7 +4034,7 @@
         <v>6</v>
       </c>
       <c r="K37">
-        <f>((H37/G37)-1)/I37</f>
+        <f t="shared" si="5"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="M37">
@@ -2923,7 +4050,7 @@
         <v>5</v>
       </c>
       <c r="Q37">
-        <f>((N37-M37)-1)/O37</f>
+        <f t="shared" si="6"/>
         <v>0.11235955056179775</v>
       </c>
       <c r="S37">
@@ -2939,7 +4066,7 @@
         <v>5</v>
       </c>
       <c r="W37">
-        <f>((T37-S37)-1)/U37</f>
+        <f t="shared" si="7"/>
         <v>0.11235955056179775</v>
       </c>
     </row>
@@ -2957,7 +4084,7 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <f>((B38/A38)-1)/C38</f>
+        <f t="shared" si="4"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="G38">
@@ -2973,7 +4100,7 @@
         <v>6</v>
       </c>
       <c r="K38">
-        <f>((H38/G38)-1)/I38</f>
+        <f t="shared" si="5"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="M38">
@@ -2989,7 +4116,7 @@
         <v>5</v>
       </c>
       <c r="Q38">
-        <f>((N38-M38)-1)/O38</f>
+        <f t="shared" si="6"/>
         <v>0.11235955056179775</v>
       </c>
       <c r="S38">
@@ -3005,7 +4132,7 @@
         <v>5</v>
       </c>
       <c r="W38">
-        <f>((T38-S38)-1)/U38</f>
+        <f t="shared" si="7"/>
         <v>0.11235955056179775</v>
       </c>
     </row>
@@ -3023,7 +4150,7 @@
         <v>6</v>
       </c>
       <c r="E39">
-        <f>((B39/A39)-1)/C39</f>
+        <f t="shared" si="4"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="G39">
@@ -3039,7 +4166,7 @@
         <v>6</v>
       </c>
       <c r="K39">
-        <f>((H39/G39)-1)/I39</f>
+        <f t="shared" si="5"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="M39">
@@ -3055,7 +4182,7 @@
         <v>5</v>
       </c>
       <c r="Q39">
-        <f>((N39-M39)-1)/O39</f>
+        <f t="shared" si="6"/>
         <v>0.11235955056179775</v>
       </c>
       <c r="S39">
@@ -3071,7 +4198,7 @@
         <v>5</v>
       </c>
       <c r="W39">
-        <f>((T39-S39)-1)/U39</f>
+        <f t="shared" si="7"/>
         <v>0.11235955056179775</v>
       </c>
     </row>
@@ -3089,7 +4216,7 @@
         <v>6</v>
       </c>
       <c r="E40">
-        <f>((B40/A40)-1)/C40</f>
+        <f t="shared" si="4"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="G40">
@@ -3105,7 +4232,7 @@
         <v>6</v>
       </c>
       <c r="K40">
-        <f>((H40/G40)-1)/I40</f>
+        <f t="shared" si="5"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="M40">
@@ -3121,7 +4248,7 @@
         <v>5</v>
       </c>
       <c r="Q40">
-        <f>((N40-M40)-1)/O40</f>
+        <f t="shared" si="6"/>
         <v>0.11235955056179775</v>
       </c>
       <c r="S40">
@@ -3137,7 +4264,7 @@
         <v>5</v>
       </c>
       <c r="W40">
-        <f>((T40-S40)-1)/U40</f>
+        <f t="shared" si="7"/>
         <v>0.11235955056179775</v>
       </c>
     </row>
@@ -3155,7 +4282,7 @@
         <v>6</v>
       </c>
       <c r="E41">
-        <f>((B41/A41)-1)/C41</f>
+        <f t="shared" si="4"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="G41">
@@ -3171,7 +4298,7 @@
         <v>6</v>
       </c>
       <c r="K41">
-        <f>((H41/G41)-1)/I41</f>
+        <f t="shared" si="5"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="M41">
@@ -3187,7 +4314,7 @@
         <v>5</v>
       </c>
       <c r="Q41">
-        <f>((N41-M41)-1)/O41</f>
+        <f t="shared" si="6"/>
         <v>0.11235955056179775</v>
       </c>
       <c r="S41">
@@ -3203,7 +4330,7 @@
         <v>5</v>
       </c>
       <c r="W41">
-        <f>((T41-S41)-1)/U41</f>
+        <f t="shared" si="7"/>
         <v>0.11235955056179775</v>
       </c>
     </row>
@@ -3221,7 +4348,7 @@
         <v>6</v>
       </c>
       <c r="E42">
-        <f>((B42/A42)-1)/C42</f>
+        <f t="shared" si="4"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="G42">
@@ -3237,7 +4364,7 @@
         <v>6</v>
       </c>
       <c r="K42">
-        <f>((H42/G42)-1)/I42</f>
+        <f t="shared" si="5"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="M42">
@@ -3253,7 +4380,7 @@
         <v>5</v>
       </c>
       <c r="Q42">
-        <f>((N42-M42)-1)/O42</f>
+        <f t="shared" si="6"/>
         <v>0.11235955056179775</v>
       </c>
       <c r="S42">
@@ -3269,7 +4396,7 @@
         <v>5</v>
       </c>
       <c r="W42">
-        <f>((T42-S42)-1)/U42</f>
+        <f t="shared" si="7"/>
         <v>0.11235955056179775</v>
       </c>
     </row>
@@ -3287,7 +4414,7 @@
         <v>6</v>
       </c>
       <c r="E43">
-        <f>((B43/A43)-1)/C43</f>
+        <f t="shared" si="4"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="G43">
@@ -3303,7 +4430,7 @@
         <v>6</v>
       </c>
       <c r="K43">
-        <f>((H43/G43)-1)/I43</f>
+        <f t="shared" si="5"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="M43">
@@ -3319,7 +4446,7 @@
         <v>5</v>
       </c>
       <c r="Q43">
-        <f>((N43-M43)-1)/O43</f>
+        <f t="shared" si="6"/>
         <v>0.11235955056179775</v>
       </c>
       <c r="S43">
@@ -3328,14 +4455,14 @@
       <c r="T43">
         <v>60</v>
       </c>
-      <c r="U43" s="3">
+      <c r="U43">
         <v>89</v>
       </c>
-      <c r="V43" s="3" t="s">
+      <c r="V43" t="s">
         <v>6</v>
       </c>
       <c r="W43">
-        <f>((T43-S43)-1)/U43</f>
+        <f t="shared" si="7"/>
         <v>0.11235955056179775</v>
       </c>
     </row>
@@ -3353,7 +4480,7 @@
         <v>6</v>
       </c>
       <c r="E44">
-        <f>((B44/A44)-1)/C44</f>
+        <f t="shared" si="4"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="G44">
@@ -3369,7 +4496,7 @@
         <v>6</v>
       </c>
       <c r="K44">
-        <f>((H44/G44)-1)/I44</f>
+        <f t="shared" si="5"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="M44">
@@ -3385,7 +4512,7 @@
         <v>5</v>
       </c>
       <c r="Q44">
-        <f>((N44-M44)-1)/O44</f>
+        <f t="shared" si="6"/>
         <v>0.11235955056179775</v>
       </c>
       <c r="S44">
@@ -3401,7 +4528,7 @@
         <v>6</v>
       </c>
       <c r="W44">
-        <f>((T44-S44)-1)/U44</f>
+        <f t="shared" si="7"/>
         <v>0.11235955056179775</v>
       </c>
     </row>
@@ -3419,7 +4546,7 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <f>((B45/A45)-1)/C45</f>
+        <f t="shared" si="4"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="G45">
@@ -3435,7 +4562,7 @@
         <v>6</v>
       </c>
       <c r="K45">
-        <f>((H45/G45)-1)/I45</f>
+        <f t="shared" si="5"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="M45">
@@ -3451,7 +4578,7 @@
         <v>5</v>
       </c>
       <c r="Q45">
-        <f>((N45-M45)-1)/O45</f>
+        <f t="shared" si="6"/>
         <v>0.11235955056179775</v>
       </c>
       <c r="S45">
@@ -3467,7 +4594,7 @@
         <v>6</v>
       </c>
       <c r="W45">
-        <f>((T45-S45)-1)/U45</f>
+        <f t="shared" si="7"/>
         <v>0.11235955056179775</v>
       </c>
     </row>
@@ -3481,11 +4608,11 @@
       <c r="C46">
         <v>89</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="3">
-        <f>((B46/A46)-1)/C46</f>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="4"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="G46">
@@ -3501,7 +4628,7 @@
         <v>6</v>
       </c>
       <c r="K46">
-        <f>((H46/G46)-1)/I46</f>
+        <f t="shared" si="5"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="M46">
@@ -3510,14 +4637,14 @@
       <c r="N46">
         <v>60</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46">
         <v>89</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="P46" t="s">
         <v>6</v>
       </c>
       <c r="Q46">
-        <f>((N46-M46)-1)/O46</f>
+        <f t="shared" si="6"/>
         <v>0.11235955056179775</v>
       </c>
       <c r="S46">
@@ -3533,7 +4660,7 @@
         <v>6</v>
       </c>
       <c r="W46">
-        <f>((T46-S46)-1)/U46</f>
+        <f t="shared" si="7"/>
         <v>0.11235955056179775</v>
       </c>
     </row>
@@ -3547,11 +4674,11 @@
       <c r="C47">
         <v>89</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="2">
-        <f>((B47/A47)-1)/C47</f>
+      <c r="D47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="4"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="G47">
@@ -3560,14 +4687,14 @@
       <c r="H47">
         <v>60</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47">
         <v>89</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K47" s="3">
-        <f>((H47/G47)-1)/I47</f>
+      <c r="J47" t="s">
+        <v>6</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="5"/>
         <v>2.522357257509746E-3</v>
       </c>
       <c r="M47">
@@ -3583,7 +4710,7 @@
         <v>6</v>
       </c>
       <c r="Q47">
-        <f>((N47-M47)-1)/O47</f>
+        <f t="shared" si="6"/>
         <v>0.11235955056179775</v>
       </c>
       <c r="S47">
@@ -3599,7 +4726,7 @@
         <v>6</v>
       </c>
       <c r="W47">
-        <f>((T47-S47)-1)/U47</f>
+        <f t="shared" si="7"/>
         <v>0.11235955056179775</v>
       </c>
     </row>
@@ -3613,11 +4740,11 @@
       <c r="C48">
         <v>62</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="2">
-        <f>((B48/A48)-1)/C48</f>
+      <c r="D48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="4"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="G48">
@@ -3626,14 +4753,14 @@
       <c r="H48">
         <v>55</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48">
         <v>62</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
-        <f>((H48/G48)-1)/I48</f>
+      <c r="J48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="M48">
@@ -3649,7 +4776,7 @@
         <v>5</v>
       </c>
       <c r="Q48">
-        <f>((N48-M48)-1)/O48</f>
+        <f t="shared" si="6"/>
         <v>0.22580645161290322</v>
       </c>
       <c r="S48">
@@ -3665,7 +4792,7 @@
         <v>5</v>
       </c>
       <c r="W48">
-        <f>((T48-S48)-1)/U48</f>
+        <f t="shared" si="7"/>
         <v>0.22580645161290322</v>
       </c>
     </row>
@@ -3683,7 +4810,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <f>((B49/A49)-1)/C49</f>
+        <f t="shared" si="4"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="G49">
@@ -3699,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="K49">
-        <f>((H49/G49)-1)/I49</f>
+        <f t="shared" si="5"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="M49">
@@ -3715,7 +4842,7 @@
         <v>5</v>
       </c>
       <c r="Q49">
-        <f>((N49-M49)-1)/O49</f>
+        <f t="shared" si="6"/>
         <v>0.22580645161290322</v>
       </c>
       <c r="S49">
@@ -3731,7 +4858,7 @@
         <v>5</v>
       </c>
       <c r="W49">
-        <f>((T49-S49)-1)/U49</f>
+        <f t="shared" si="7"/>
         <v>0.22580645161290322</v>
       </c>
     </row>
@@ -3749,7 +4876,7 @@
         <v>5</v>
       </c>
       <c r="E50">
-        <f>((B50/A50)-1)/C50</f>
+        <f t="shared" si="4"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="G50">
@@ -3765,7 +4892,7 @@
         <v>6</v>
       </c>
       <c r="K50">
-        <f>((H50/G50)-1)/I50</f>
+        <f t="shared" si="5"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="M50">
@@ -3781,7 +4908,7 @@
         <v>5</v>
       </c>
       <c r="Q50">
-        <f>((N50-M50)-1)/O50</f>
+        <f t="shared" si="6"/>
         <v>0.22580645161290322</v>
       </c>
       <c r="S50">
@@ -3797,7 +4924,7 @@
         <v>5</v>
       </c>
       <c r="W50">
-        <f>((T50-S50)-1)/U50</f>
+        <f t="shared" si="7"/>
         <v>0.22580645161290322</v>
       </c>
     </row>
@@ -3815,7 +4942,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <f>((B51/A51)-1)/C51</f>
+        <f t="shared" si="4"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="G51">
@@ -3831,7 +4958,7 @@
         <v>6</v>
       </c>
       <c r="K51">
-        <f>((H51/G51)-1)/I51</f>
+        <f t="shared" si="5"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="M51">
@@ -3847,7 +4974,7 @@
         <v>5</v>
       </c>
       <c r="Q51">
-        <f>((N51-M51)-1)/O51</f>
+        <f t="shared" si="6"/>
         <v>0.22580645161290322</v>
       </c>
       <c r="S51">
@@ -3863,7 +4990,7 @@
         <v>5</v>
       </c>
       <c r="W51">
-        <f>((T51-S51)-1)/U51</f>
+        <f t="shared" si="7"/>
         <v>0.22580645161290322</v>
       </c>
     </row>
@@ -3881,7 +5008,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <f>((B52/A52)-1)/C52</f>
+        <f t="shared" si="4"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="G52">
@@ -3897,7 +5024,7 @@
         <v>6</v>
       </c>
       <c r="K52">
-        <f>((H52/G52)-1)/I52</f>
+        <f t="shared" si="5"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="M52">
@@ -3913,7 +5040,7 @@
         <v>5</v>
       </c>
       <c r="Q52">
-        <f>((N52-M52)-1)/O52</f>
+        <f t="shared" si="6"/>
         <v>0.22580645161290322</v>
       </c>
       <c r="S52">
@@ -3929,7 +5056,7 @@
         <v>5</v>
       </c>
       <c r="W52">
-        <f>((T52-S52)-1)/U52</f>
+        <f t="shared" si="7"/>
         <v>0.22580645161290322</v>
       </c>
     </row>
@@ -3947,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="E53">
-        <f>((B53/A53)-1)/C53</f>
+        <f t="shared" si="4"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="G53">
@@ -3963,7 +5090,7 @@
         <v>6</v>
       </c>
       <c r="K53">
-        <f>((H53/G53)-1)/I53</f>
+        <f t="shared" si="5"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="M53">
@@ -3979,7 +5106,7 @@
         <v>5</v>
       </c>
       <c r="Q53">
-        <f>((N53-M53)-1)/O53</f>
+        <f t="shared" si="6"/>
         <v>0.22580645161290322</v>
       </c>
       <c r="S53">
@@ -3995,7 +5122,7 @@
         <v>5</v>
       </c>
       <c r="W53">
-        <f>((T53-S53)-1)/U53</f>
+        <f t="shared" si="7"/>
         <v>0.22580645161290322</v>
       </c>
     </row>
@@ -4013,7 +5140,7 @@
         <v>5</v>
       </c>
       <c r="E54">
-        <f>((B54/A54)-1)/C54</f>
+        <f t="shared" si="4"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="G54">
@@ -4029,7 +5156,7 @@
         <v>6</v>
       </c>
       <c r="K54">
-        <f>((H54/G54)-1)/I54</f>
+        <f t="shared" si="5"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="M54">
@@ -4045,7 +5172,7 @@
         <v>5</v>
       </c>
       <c r="Q54">
-        <f>((N54-M54)-1)/O54</f>
+        <f t="shared" si="6"/>
         <v>0.22580645161290322</v>
       </c>
       <c r="S54">
@@ -4061,7 +5188,7 @@
         <v>5</v>
       </c>
       <c r="W54">
-        <f>((T54-S54)-1)/U54</f>
+        <f t="shared" si="7"/>
         <v>0.22580645161290322</v>
       </c>
     </row>
@@ -4079,7 +5206,7 @@
         <v>5</v>
       </c>
       <c r="E55">
-        <f>((B55/A55)-1)/C55</f>
+        <f t="shared" si="4"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="G55">
@@ -4095,7 +5222,7 @@
         <v>6</v>
       </c>
       <c r="K55">
-        <f>((H55/G55)-1)/I55</f>
+        <f t="shared" si="5"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="M55">
@@ -4111,7 +5238,7 @@
         <v>5</v>
       </c>
       <c r="Q55">
-        <f>((N55-M55)-1)/O55</f>
+        <f t="shared" si="6"/>
         <v>0.22580645161290322</v>
       </c>
       <c r="S55">
@@ -4127,7 +5254,7 @@
         <v>5</v>
       </c>
       <c r="W55">
-        <f>((T55-S55)-1)/U55</f>
+        <f t="shared" si="7"/>
         <v>0.22580645161290322</v>
       </c>
     </row>
@@ -4145,7 +5272,7 @@
         <v>5</v>
       </c>
       <c r="E56">
-        <f>((B56/A56)-1)/C56</f>
+        <f t="shared" si="4"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="G56">
@@ -4161,7 +5288,7 @@
         <v>6</v>
       </c>
       <c r="K56">
-        <f>((H56/G56)-1)/I56</f>
+        <f t="shared" si="5"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="M56">
@@ -4177,7 +5304,7 @@
         <v>5</v>
       </c>
       <c r="Q56">
-        <f>((N56-M56)-1)/O56</f>
+        <f t="shared" si="6"/>
         <v>0.22580645161290322</v>
       </c>
       <c r="S56">
@@ -4193,7 +5320,7 @@
         <v>5</v>
       </c>
       <c r="W56">
-        <f>((T56-S56)-1)/U56</f>
+        <f t="shared" si="7"/>
         <v>0.22580645161290322</v>
       </c>
     </row>
@@ -4211,7 +5338,7 @@
         <v>5</v>
       </c>
       <c r="E57">
-        <f>((B57/A57)-1)/C57</f>
+        <f t="shared" si="4"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="G57">
@@ -4227,7 +5354,7 @@
         <v>6</v>
       </c>
       <c r="K57">
-        <f>((H57/G57)-1)/I57</f>
+        <f t="shared" si="5"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="M57">
@@ -4243,7 +5370,7 @@
         <v>5</v>
       </c>
       <c r="Q57">
-        <f>((N57-M57)-1)/O57</f>
+        <f t="shared" si="6"/>
         <v>0.22580645161290322</v>
       </c>
       <c r="S57">
@@ -4259,7 +5386,7 @@
         <v>6</v>
       </c>
       <c r="W57">
-        <f>((T57-S57)-1)/U57</f>
+        <f t="shared" si="7"/>
         <v>0.22580645161290322</v>
       </c>
     </row>
@@ -4277,7 +5404,7 @@
         <v>5</v>
       </c>
       <c r="E58">
-        <f>((B58/A58)-1)/C58</f>
+        <f t="shared" si="4"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="G58">
@@ -4293,7 +5420,7 @@
         <v>6</v>
       </c>
       <c r="K58">
-        <f>((H58/G58)-1)/I58</f>
+        <f t="shared" si="5"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="M58">
@@ -4309,7 +5436,7 @@
         <v>5</v>
       </c>
       <c r="Q58">
-        <f>((N58-M58)-1)/O58</f>
+        <f t="shared" si="6"/>
         <v>0.22580645161290322</v>
       </c>
       <c r="S58">
@@ -4325,7 +5452,7 @@
         <v>6</v>
       </c>
       <c r="W58">
-        <f>((T58-S58)-1)/U58</f>
+        <f t="shared" si="7"/>
         <v>0.22580645161290322</v>
       </c>
     </row>
@@ -4343,7 +5470,7 @@
         <v>5</v>
       </c>
       <c r="E59">
-        <f>((B59/A59)-1)/C59</f>
+        <f t="shared" si="4"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="G59">
@@ -4359,7 +5486,7 @@
         <v>6</v>
       </c>
       <c r="K59">
-        <f>((H59/G59)-1)/I59</f>
+        <f t="shared" si="5"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="M59">
@@ -4375,7 +5502,7 @@
         <v>5</v>
       </c>
       <c r="Q59">
-        <f>((N59-M59)-1)/O59</f>
+        <f t="shared" si="6"/>
         <v>0.22580645161290322</v>
       </c>
       <c r="S59">
@@ -4391,7 +5518,7 @@
         <v>6</v>
       </c>
       <c r="W59">
-        <f>((T59-S59)-1)/U59</f>
+        <f t="shared" si="7"/>
         <v>0.22580645161290322</v>
       </c>
     </row>
@@ -4409,7 +5536,7 @@
         <v>5</v>
       </c>
       <c r="E60">
-        <f>((B60/A60)-1)/C60</f>
+        <f t="shared" si="4"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="G60">
@@ -4425,7 +5552,7 @@
         <v>6</v>
       </c>
       <c r="K60">
-        <f>((H60/G60)-1)/I60</f>
+        <f t="shared" si="5"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="M60">
@@ -4441,7 +5568,7 @@
         <v>5</v>
       </c>
       <c r="Q60">
-        <f>((N60-M60)-1)/O60</f>
+        <f t="shared" si="6"/>
         <v>0.22580645161290322</v>
       </c>
       <c r="S60">
@@ -4457,7 +5584,7 @@
         <v>6</v>
       </c>
       <c r="W60">
-        <f>((T60-S60)-1)/U60</f>
+        <f t="shared" si="7"/>
         <v>0.22580645161290322</v>
       </c>
     </row>
@@ -4475,7 +5602,7 @@
         <v>6</v>
       </c>
       <c r="E61">
-        <f>((B61/A61)-1)/C61</f>
+        <f t="shared" si="4"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="G61">
@@ -4491,7 +5618,7 @@
         <v>6</v>
       </c>
       <c r="K61">
-        <f>((H61/G61)-1)/I61</f>
+        <f t="shared" si="5"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="M61">
@@ -4507,7 +5634,7 @@
         <v>5</v>
       </c>
       <c r="Q61">
-        <f>((N61-M61)-1)/O61</f>
+        <f t="shared" si="6"/>
         <v>0.22580645161290322</v>
       </c>
       <c r="S61">
@@ -4523,7 +5650,7 @@
         <v>6</v>
       </c>
       <c r="W61">
-        <f>((T61-S61)-1)/U61</f>
+        <f t="shared" si="7"/>
         <v>0.22580645161290322</v>
       </c>
     </row>
@@ -4541,7 +5668,7 @@
         <v>6</v>
       </c>
       <c r="E62">
-        <f>((B62/A62)-1)/C62</f>
+        <f t="shared" si="4"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="G62">
@@ -4557,7 +5684,7 @@
         <v>6</v>
       </c>
       <c r="K62">
-        <f>((H62/G62)-1)/I62</f>
+        <f t="shared" si="5"/>
         <v>6.0483870967741934E-3</v>
       </c>
       <c r="M62">
@@ -4573,7 +5700,7 @@
         <v>5</v>
       </c>
       <c r="Q62">
-        <f>((N62-M62)-1)/O62</f>
+        <f t="shared" si="6"/>
         <v>0.22580645161290322</v>
       </c>
       <c r="S62">
@@ -4589,7 +5716,7 @@
         <v>6</v>
       </c>
       <c r="W62">
-        <f>((T62-S62)-1)/U62</f>
+        <f t="shared" si="7"/>
         <v>0.22580645161290322</v>
       </c>
     </row>
@@ -4607,7 +5734,7 @@
         <v>5</v>
       </c>
       <c r="E63">
-        <f>((B63/A63)-1)/C63</f>
+        <f t="shared" si="4"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="G63">
@@ -4623,7 +5750,7 @@
         <v>5</v>
       </c>
       <c r="K63">
-        <f>((H63/G63)-1)/I63</f>
+        <f t="shared" si="5"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="M63">
@@ -4639,7 +5766,7 @@
         <v>5</v>
       </c>
       <c r="Q63">
-        <f>((N63-M63)-1)/O63</f>
+        <f t="shared" si="6"/>
         <v>1.0476190476190477</v>
       </c>
       <c r="S63">
@@ -4655,7 +5782,7 @@
         <v>5</v>
       </c>
       <c r="W63">
-        <f>((T63-S63)-1)/U63</f>
+        <f t="shared" si="7"/>
         <v>1.0476190476190477</v>
       </c>
     </row>
@@ -4673,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="E64">
-        <f>((B64/A64)-1)/C64</f>
+        <f t="shared" si="4"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="G64">
@@ -4689,7 +5816,7 @@
         <v>5</v>
       </c>
       <c r="K64">
-        <f>((H64/G64)-1)/I64</f>
+        <f t="shared" si="5"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="M64">
@@ -4705,7 +5832,7 @@
         <v>5</v>
       </c>
       <c r="Q64">
-        <f>((N64-M64)-1)/O64</f>
+        <f t="shared" si="6"/>
         <v>1.0476190476190477</v>
       </c>
       <c r="S64">
@@ -4721,7 +5848,7 @@
         <v>5</v>
       </c>
       <c r="W64">
-        <f>((T64-S64)-1)/U64</f>
+        <f t="shared" si="7"/>
         <v>1.0476190476190477</v>
       </c>
     </row>
@@ -4739,7 +5866,7 @@
         <v>5</v>
       </c>
       <c r="E65">
-        <f>((B65/A65)-1)/C65</f>
+        <f t="shared" si="4"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="G65">
@@ -4755,7 +5882,7 @@
         <v>5</v>
       </c>
       <c r="K65">
-        <f>((H65/G65)-1)/I65</f>
+        <f t="shared" si="5"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="M65">
@@ -4771,7 +5898,7 @@
         <v>5</v>
       </c>
       <c r="Q65">
-        <f>((N65-M65)-1)/O65</f>
+        <f t="shared" si="6"/>
         <v>1.0476190476190477</v>
       </c>
       <c r="S65">
@@ -4787,7 +5914,7 @@
         <v>5</v>
       </c>
       <c r="W65">
-        <f>((T65-S65)-1)/U65</f>
+        <f t="shared" si="7"/>
         <v>1.0476190476190477</v>
       </c>
     </row>
@@ -4805,7 +5932,7 @@
         <v>5</v>
       </c>
       <c r="E66">
-        <f>((B66/A66)-1)/C66</f>
+        <f t="shared" si="4"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="G66">
@@ -4821,7 +5948,7 @@
         <v>6</v>
       </c>
       <c r="K66">
-        <f>((H66/G66)-1)/I66</f>
+        <f t="shared" si="5"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="M66">
@@ -4837,7 +5964,7 @@
         <v>5</v>
       </c>
       <c r="Q66">
-        <f>((N66-M66)-1)/O66</f>
+        <f t="shared" si="6"/>
         <v>1.0476190476190477</v>
       </c>
       <c r="S66">
@@ -4853,7 +5980,7 @@
         <v>5</v>
       </c>
       <c r="W66">
-        <f>((T66-S66)-1)/U66</f>
+        <f t="shared" si="7"/>
         <v>1.0476190476190477</v>
       </c>
     </row>
@@ -4871,7 +5998,7 @@
         <v>5</v>
       </c>
       <c r="E67">
-        <f>((B67/A67)-1)/C67</f>
+        <f t="shared" ref="E67:E98" si="8">((B67/A67)-1)/C67</f>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="G67">
@@ -4887,7 +6014,7 @@
         <v>6</v>
       </c>
       <c r="K67">
-        <f>((H67/G67)-1)/I67</f>
+        <f t="shared" ref="K67:K98" si="9">((H67/G67)-1)/I67</f>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="M67">
@@ -4903,7 +6030,7 @@
         <v>5</v>
       </c>
       <c r="Q67">
-        <f>((N67-M67)-1)/O67</f>
+        <f t="shared" ref="Q67:Q98" si="10">((N67-M67)-1)/O67</f>
         <v>1.0476190476190477</v>
       </c>
       <c r="S67">
@@ -4919,7 +6046,7 @@
         <v>5</v>
       </c>
       <c r="W67">
-        <f>((T67-S67)-1)/U67</f>
+        <f t="shared" ref="W67:W98" si="11">((T67-S67)-1)/U67</f>
         <v>1.0476190476190477</v>
       </c>
     </row>
@@ -4937,7 +6064,7 @@
         <v>5</v>
       </c>
       <c r="E68">
-        <f>((B68/A68)-1)/C68</f>
+        <f t="shared" si="8"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="G68">
@@ -4953,7 +6080,7 @@
         <v>6</v>
       </c>
       <c r="K68">
-        <f>((H68/G68)-1)/I68</f>
+        <f t="shared" si="9"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="M68">
@@ -4969,7 +6096,7 @@
         <v>5</v>
       </c>
       <c r="Q68">
-        <f>((N68-M68)-1)/O68</f>
+        <f t="shared" si="10"/>
         <v>1.0476190476190477</v>
       </c>
       <c r="S68">
@@ -4985,7 +6112,7 @@
         <v>5</v>
       </c>
       <c r="W68">
-        <f>((T68-S68)-1)/U68</f>
+        <f t="shared" si="11"/>
         <v>1.0476190476190477</v>
       </c>
     </row>
@@ -5003,7 +6130,7 @@
         <v>5</v>
       </c>
       <c r="E69">
-        <f>((B69/A69)-1)/C69</f>
+        <f t="shared" si="8"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="G69">
@@ -5019,7 +6146,7 @@
         <v>6</v>
       </c>
       <c r="K69">
-        <f>((H69/G69)-1)/I69</f>
+        <f t="shared" si="9"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="M69">
@@ -5035,7 +6162,7 @@
         <v>5</v>
       </c>
       <c r="Q69">
-        <f>((N69-M69)-1)/O69</f>
+        <f t="shared" si="10"/>
         <v>1.0476190476190477</v>
       </c>
       <c r="S69">
@@ -5051,7 +6178,7 @@
         <v>5</v>
       </c>
       <c r="W69">
-        <f>((T69-S69)-1)/U69</f>
+        <f t="shared" si="11"/>
         <v>1.0476190476190477</v>
       </c>
     </row>
@@ -5069,7 +6196,7 @@
         <v>5</v>
       </c>
       <c r="E70">
-        <f>((B70/A70)-1)/C70</f>
+        <f t="shared" si="8"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="G70">
@@ -5085,7 +6212,7 @@
         <v>6</v>
       </c>
       <c r="K70">
-        <f>((H70/G70)-1)/I70</f>
+        <f t="shared" si="9"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="M70">
@@ -5101,7 +6228,7 @@
         <v>5</v>
       </c>
       <c r="Q70">
-        <f>((N70-M70)-1)/O70</f>
+        <f t="shared" si="10"/>
         <v>1.0476190476190477</v>
       </c>
       <c r="S70">
@@ -5117,7 +6244,7 @@
         <v>5</v>
       </c>
       <c r="W70">
-        <f>((T70-S70)-1)/U70</f>
+        <f t="shared" si="11"/>
         <v>1.0476190476190477</v>
       </c>
     </row>
@@ -5135,7 +6262,7 @@
         <v>5</v>
       </c>
       <c r="E71">
-        <f>((B71/A71)-1)/C71</f>
+        <f t="shared" si="8"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="G71">
@@ -5151,7 +6278,7 @@
         <v>6</v>
       </c>
       <c r="K71">
-        <f>((H71/G71)-1)/I71</f>
+        <f t="shared" si="9"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="M71">
@@ -5167,7 +6294,7 @@
         <v>5</v>
       </c>
       <c r="Q71">
-        <f>((N71-M71)-1)/O71</f>
+        <f t="shared" si="10"/>
         <v>1.0476190476190477</v>
       </c>
       <c r="S71">
@@ -5183,7 +6310,7 @@
         <v>5</v>
       </c>
       <c r="W71">
-        <f>((T71-S71)-1)/U71</f>
+        <f t="shared" si="11"/>
         <v>1.0476190476190477</v>
       </c>
     </row>
@@ -5201,7 +6328,7 @@
         <v>5</v>
       </c>
       <c r="E72">
-        <f>((B72/A72)-1)/C72</f>
+        <f t="shared" si="8"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="G72">
@@ -5217,7 +6344,7 @@
         <v>6</v>
       </c>
       <c r="K72">
-        <f>((H72/G72)-1)/I72</f>
+        <f t="shared" si="9"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="M72">
@@ -5233,7 +6360,7 @@
         <v>5</v>
       </c>
       <c r="Q72">
-        <f>((N72-M72)-1)/O72</f>
+        <f t="shared" si="10"/>
         <v>1.0476190476190477</v>
       </c>
       <c r="S72">
@@ -5249,7 +6376,7 @@
         <v>5</v>
       </c>
       <c r="W72">
-        <f>((T72-S72)-1)/U72</f>
+        <f t="shared" si="11"/>
         <v>1.0476190476190477</v>
       </c>
     </row>
@@ -5267,7 +6394,7 @@
         <v>5</v>
       </c>
       <c r="E73">
-        <f>((B73/A73)-1)/C73</f>
+        <f t="shared" si="8"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="G73">
@@ -5283,7 +6410,7 @@
         <v>6</v>
       </c>
       <c r="K73">
-        <f>((H73/G73)-1)/I73</f>
+        <f t="shared" si="9"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="M73">
@@ -5299,7 +6426,7 @@
         <v>5</v>
       </c>
       <c r="Q73">
-        <f>((N73-M73)-1)/O73</f>
+        <f t="shared" si="10"/>
         <v>1.0476190476190477</v>
       </c>
       <c r="S73">
@@ -5315,7 +6442,7 @@
         <v>5</v>
       </c>
       <c r="W73">
-        <f>((T73-S73)-1)/U73</f>
+        <f t="shared" si="11"/>
         <v>1.0476190476190477</v>
       </c>
     </row>
@@ -5333,7 +6460,7 @@
         <v>5</v>
       </c>
       <c r="E74">
-        <f>((B74/A74)-1)/C74</f>
+        <f t="shared" si="8"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="G74">
@@ -5349,7 +6476,7 @@
         <v>6</v>
       </c>
       <c r="K74">
-        <f>((H74/G74)-1)/I74</f>
+        <f t="shared" si="9"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="M74">
@@ -5365,7 +6492,7 @@
         <v>5</v>
       </c>
       <c r="Q74">
-        <f>((N74-M74)-1)/O74</f>
+        <f t="shared" si="10"/>
         <v>1.0476190476190477</v>
       </c>
       <c r="S74">
@@ -5381,7 +6508,7 @@
         <v>5</v>
       </c>
       <c r="W74">
-        <f>((T74-S74)-1)/U74</f>
+        <f t="shared" si="11"/>
         <v>1.0476190476190477</v>
       </c>
     </row>
@@ -5399,7 +6526,7 @@
         <v>5</v>
       </c>
       <c r="E75">
-        <f>((B75/A75)-1)/C75</f>
+        <f t="shared" si="8"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="G75">
@@ -5415,7 +6542,7 @@
         <v>6</v>
       </c>
       <c r="K75">
-        <f>((H75/G75)-1)/I75</f>
+        <f t="shared" si="9"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="M75">
@@ -5431,7 +6558,7 @@
         <v>5</v>
       </c>
       <c r="Q75">
-        <f>((N75-M75)-1)/O75</f>
+        <f t="shared" si="10"/>
         <v>1.0476190476190477</v>
       </c>
       <c r="S75">
@@ -5447,7 +6574,7 @@
         <v>5</v>
       </c>
       <c r="W75">
-        <f>((T75-S75)-1)/U75</f>
+        <f t="shared" si="11"/>
         <v>1.0476190476190477</v>
       </c>
     </row>
@@ -5465,7 +6592,7 @@
         <v>5</v>
       </c>
       <c r="E76">
-        <f>((B76/A76)-1)/C76</f>
+        <f t="shared" si="8"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="G76">
@@ -5481,7 +6608,7 @@
         <v>6</v>
       </c>
       <c r="K76">
-        <f>((H76/G76)-1)/I76</f>
+        <f t="shared" si="9"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="M76">
@@ -5497,7 +6624,7 @@
         <v>5</v>
       </c>
       <c r="Q76">
-        <f>((N76-M76)-1)/O76</f>
+        <f t="shared" si="10"/>
         <v>1.0476190476190477</v>
       </c>
       <c r="S76">
@@ -5513,7 +6640,7 @@
         <v>5</v>
       </c>
       <c r="W76">
-        <f>((T76-S76)-1)/U76</f>
+        <f t="shared" si="11"/>
         <v>1.0476190476190477</v>
       </c>
     </row>
@@ -5531,7 +6658,7 @@
         <v>6</v>
       </c>
       <c r="E77">
-        <f>((B77/A77)-1)/C77</f>
+        <f t="shared" si="8"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="G77">
@@ -5547,7 +6674,7 @@
         <v>6</v>
       </c>
       <c r="K77">
-        <f>((H77/G77)-1)/I77</f>
+        <f t="shared" si="9"/>
         <v>4.0564373897707229E-2</v>
       </c>
       <c r="M77">
@@ -5563,7 +6690,7 @@
         <v>5</v>
       </c>
       <c r="Q77">
-        <f>((N77-M77)-1)/O77</f>
+        <f t="shared" si="10"/>
         <v>1.0476190476190477</v>
       </c>
       <c r="S77">
@@ -5579,7 +6706,7 @@
         <v>5</v>
       </c>
       <c r="W77">
-        <f>((T77-S77)-1)/U77</f>
+        <f t="shared" si="11"/>
         <v>1.0476190476190477</v>
       </c>
     </row>
@@ -5597,7 +6724,7 @@
         <v>5</v>
       </c>
       <c r="E78">
-        <f>((B78/A78)-1)/C78</f>
+        <f t="shared" si="8"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="G78">
@@ -5613,7 +6740,7 @@
         <v>5</v>
       </c>
       <c r="K78">
-        <f>((H78/G78)-1)/I78</f>
+        <f t="shared" si="9"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="M78">
@@ -5629,7 +6756,7 @@
         <v>5</v>
       </c>
       <c r="Q78">
-        <f>((N78-M78)-1)/O78</f>
+        <f t="shared" si="10"/>
         <v>1.4615384615384615</v>
       </c>
       <c r="S78">
@@ -5645,7 +6772,7 @@
         <v>5</v>
       </c>
       <c r="W78">
-        <f>((T78-S78)-1)/U78</f>
+        <f t="shared" si="11"/>
         <v>1.4615384615384615</v>
       </c>
     </row>
@@ -5663,7 +6790,7 @@
         <v>5</v>
       </c>
       <c r="E79">
-        <f>((B79/A79)-1)/C79</f>
+        <f t="shared" si="8"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="G79">
@@ -5679,7 +6806,7 @@
         <v>5</v>
       </c>
       <c r="K79">
-        <f>((H79/G79)-1)/I79</f>
+        <f t="shared" si="9"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="M79">
@@ -5695,7 +6822,7 @@
         <v>5</v>
       </c>
       <c r="Q79">
-        <f>((N79-M79)-1)/O79</f>
+        <f t="shared" si="10"/>
         <v>1.4615384615384615</v>
       </c>
       <c r="S79">
@@ -5711,7 +6838,7 @@
         <v>5</v>
       </c>
       <c r="W79">
-        <f>((T79-S79)-1)/U79</f>
+        <f t="shared" si="11"/>
         <v>1.4615384615384615</v>
       </c>
     </row>
@@ -5729,7 +6856,7 @@
         <v>5</v>
       </c>
       <c r="E80">
-        <f>((B80/A80)-1)/C80</f>
+        <f t="shared" si="8"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="G80">
@@ -5745,7 +6872,7 @@
         <v>5</v>
       </c>
       <c r="K80">
-        <f>((H80/G80)-1)/I80</f>
+        <f t="shared" si="9"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="M80">
@@ -5761,7 +6888,7 @@
         <v>5</v>
       </c>
       <c r="Q80">
-        <f>((N80-M80)-1)/O80</f>
+        <f t="shared" si="10"/>
         <v>1.4615384615384615</v>
       </c>
       <c r="S80">
@@ -5777,7 +6904,7 @@
         <v>5</v>
       </c>
       <c r="W80">
-        <f>((T80-S80)-1)/U80</f>
+        <f t="shared" si="11"/>
         <v>1.4615384615384615</v>
       </c>
     </row>
@@ -5795,7 +6922,7 @@
         <v>5</v>
       </c>
       <c r="E81">
-        <f>((B81/A81)-1)/C81</f>
+        <f t="shared" si="8"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="G81">
@@ -5811,7 +6938,7 @@
         <v>5</v>
       </c>
       <c r="K81">
-        <f>((H81/G81)-1)/I81</f>
+        <f t="shared" si="9"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="M81">
@@ -5827,7 +6954,7 @@
         <v>5</v>
       </c>
       <c r="Q81">
-        <f>((N81-M81)-1)/O81</f>
+        <f t="shared" si="10"/>
         <v>1.4615384615384615</v>
       </c>
       <c r="S81">
@@ -5843,7 +6970,7 @@
         <v>5</v>
       </c>
       <c r="W81">
-        <f>((T81-S81)-1)/U81</f>
+        <f t="shared" si="11"/>
         <v>1.4615384615384615</v>
       </c>
     </row>
@@ -5861,7 +6988,7 @@
         <v>5</v>
       </c>
       <c r="E82">
-        <f>((B82/A82)-1)/C82</f>
+        <f t="shared" si="8"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="G82">
@@ -5877,7 +7004,7 @@
         <v>5</v>
       </c>
       <c r="K82">
-        <f>((H82/G82)-1)/I82</f>
+        <f t="shared" si="9"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="M82">
@@ -5893,7 +7020,7 @@
         <v>5</v>
       </c>
       <c r="Q82">
-        <f>((N82-M82)-1)/O82</f>
+        <f t="shared" si="10"/>
         <v>1.4615384615384615</v>
       </c>
       <c r="S82">
@@ -5909,7 +7036,7 @@
         <v>5</v>
       </c>
       <c r="W82">
-        <f>((T82-S82)-1)/U82</f>
+        <f t="shared" si="11"/>
         <v>1.4615384615384615</v>
       </c>
     </row>
@@ -5927,7 +7054,7 @@
         <v>5</v>
       </c>
       <c r="E83">
-        <f>((B83/A83)-1)/C83</f>
+        <f t="shared" si="8"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="G83">
@@ -5943,7 +7070,7 @@
         <v>5</v>
       </c>
       <c r="K83">
-        <f>((H83/G83)-1)/I83</f>
+        <f t="shared" si="9"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="M83">
@@ -5959,7 +7086,7 @@
         <v>5</v>
       </c>
       <c r="Q83">
-        <f>((N83-M83)-1)/O83</f>
+        <f t="shared" si="10"/>
         <v>1.4615384615384615</v>
       </c>
       <c r="S83">
@@ -5975,7 +7102,7 @@
         <v>5</v>
       </c>
       <c r="W83">
-        <f>((T83-S83)-1)/U83</f>
+        <f t="shared" si="11"/>
         <v>1.4615384615384615</v>
       </c>
     </row>
@@ -5993,7 +7120,7 @@
         <v>5</v>
       </c>
       <c r="E84">
-        <f>((B84/A84)-1)/C84</f>
+        <f t="shared" si="8"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="G84">
@@ -6009,7 +7136,7 @@
         <v>5</v>
       </c>
       <c r="K84">
-        <f>((H84/G84)-1)/I84</f>
+        <f t="shared" si="9"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="M84">
@@ -6025,7 +7152,7 @@
         <v>5</v>
       </c>
       <c r="Q84">
-        <f>((N84-M84)-1)/O84</f>
+        <f t="shared" si="10"/>
         <v>1.4615384615384615</v>
       </c>
       <c r="S84">
@@ -6041,7 +7168,7 @@
         <v>5</v>
       </c>
       <c r="W84">
-        <f>((T84-S84)-1)/U84</f>
+        <f t="shared" si="11"/>
         <v>1.4615384615384615</v>
       </c>
     </row>
@@ -6059,7 +7186,7 @@
         <v>5</v>
       </c>
       <c r="E85">
-        <f>((B85/A85)-1)/C85</f>
+        <f t="shared" si="8"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="G85">
@@ -6075,7 +7202,7 @@
         <v>5</v>
       </c>
       <c r="K85">
-        <f>((H85/G85)-1)/I85</f>
+        <f t="shared" si="9"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="M85">
@@ -6091,7 +7218,7 @@
         <v>5</v>
       </c>
       <c r="Q85">
-        <f>((N85-M85)-1)/O85</f>
+        <f t="shared" si="10"/>
         <v>1.4615384615384615</v>
       </c>
       <c r="S85">
@@ -6107,7 +7234,7 @@
         <v>5</v>
       </c>
       <c r="W85">
-        <f>((T85-S85)-1)/U85</f>
+        <f t="shared" si="11"/>
         <v>1.4615384615384615</v>
       </c>
     </row>
@@ -6125,7 +7252,7 @@
         <v>5</v>
       </c>
       <c r="E86">
-        <f>((B86/A86)-1)/C86</f>
+        <f t="shared" si="8"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="G86">
@@ -6141,7 +7268,7 @@
         <v>5</v>
       </c>
       <c r="K86">
-        <f>((H86/G86)-1)/I86</f>
+        <f t="shared" si="9"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="M86">
@@ -6157,7 +7284,7 @@
         <v>5</v>
       </c>
       <c r="Q86">
-        <f>((N86-M86)-1)/O86</f>
+        <f t="shared" si="10"/>
         <v>1.4615384615384615</v>
       </c>
       <c r="S86">
@@ -6173,7 +7300,7 @@
         <v>5</v>
       </c>
       <c r="W86">
-        <f>((T86-S86)-1)/U86</f>
+        <f t="shared" si="11"/>
         <v>1.4615384615384615</v>
       </c>
     </row>
@@ -6191,7 +7318,7 @@
         <v>5</v>
       </c>
       <c r="E87">
-        <f>((B87/A87)-1)/C87</f>
+        <f t="shared" si="8"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="G87">
@@ -6207,7 +7334,7 @@
         <v>5</v>
       </c>
       <c r="K87">
-        <f>((H87/G87)-1)/I87</f>
+        <f t="shared" si="9"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="M87">
@@ -6223,7 +7350,7 @@
         <v>5</v>
       </c>
       <c r="Q87">
-        <f>((N87-M87)-1)/O87</f>
+        <f t="shared" si="10"/>
         <v>1.4615384615384615</v>
       </c>
       <c r="S87">
@@ -6239,7 +7366,7 @@
         <v>5</v>
       </c>
       <c r="W87">
-        <f>((T87-S87)-1)/U87</f>
+        <f t="shared" si="11"/>
         <v>1.4615384615384615</v>
       </c>
     </row>
@@ -6257,7 +7384,7 @@
         <v>5</v>
       </c>
       <c r="E88">
-        <f>((B88/A88)-1)/C88</f>
+        <f t="shared" si="8"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="G88">
@@ -6273,7 +7400,7 @@
         <v>5</v>
       </c>
       <c r="K88">
-        <f>((H88/G88)-1)/I88</f>
+        <f t="shared" si="9"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="M88">
@@ -6289,7 +7416,7 @@
         <v>5</v>
       </c>
       <c r="Q88">
-        <f>((N88-M88)-1)/O88</f>
+        <f t="shared" si="10"/>
         <v>1.4615384615384615</v>
       </c>
       <c r="S88">
@@ -6305,7 +7432,7 @@
         <v>5</v>
       </c>
       <c r="W88">
-        <f>((T88-S88)-1)/U88</f>
+        <f t="shared" si="11"/>
         <v>1.4615384615384615</v>
       </c>
     </row>
@@ -6323,7 +7450,7 @@
         <v>5</v>
       </c>
       <c r="E89">
-        <f>((B89/A89)-1)/C89</f>
+        <f t="shared" si="8"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="G89">
@@ -6339,7 +7466,7 @@
         <v>5</v>
       </c>
       <c r="K89">
-        <f>((H89/G89)-1)/I89</f>
+        <f t="shared" si="9"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="M89">
@@ -6355,7 +7482,7 @@
         <v>5</v>
       </c>
       <c r="Q89">
-        <f>((N89-M89)-1)/O89</f>
+        <f t="shared" si="10"/>
         <v>1.4615384615384615</v>
       </c>
       <c r="S89">
@@ -6371,7 +7498,7 @@
         <v>5</v>
       </c>
       <c r="W89">
-        <f>((T89-S89)-1)/U89</f>
+        <f t="shared" si="11"/>
         <v>1.4615384615384615</v>
       </c>
     </row>
@@ -6389,7 +7516,7 @@
         <v>5</v>
       </c>
       <c r="E90">
-        <f>((B90/A90)-1)/C90</f>
+        <f t="shared" si="8"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="G90">
@@ -6405,7 +7532,7 @@
         <v>6</v>
       </c>
       <c r="K90">
-        <f>((H90/G90)-1)/I90</f>
+        <f t="shared" si="9"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="M90">
@@ -6421,7 +7548,7 @@
         <v>5</v>
       </c>
       <c r="Q90">
-        <f>((N90-M90)-1)/O90</f>
+        <f t="shared" si="10"/>
         <v>1.4615384615384615</v>
       </c>
       <c r="S90">
@@ -6437,7 +7564,7 @@
         <v>5</v>
       </c>
       <c r="W90">
-        <f>((T90-S90)-1)/U90</f>
+        <f t="shared" si="11"/>
         <v>1.4615384615384615</v>
       </c>
     </row>
@@ -6455,7 +7582,7 @@
         <v>5</v>
       </c>
       <c r="E91">
-        <f>((B91/A91)-1)/C91</f>
+        <f t="shared" si="8"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="G91">
@@ -6471,7 +7598,7 @@
         <v>6</v>
       </c>
       <c r="K91">
-        <f>((H91/G91)-1)/I91</f>
+        <f t="shared" si="9"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="M91">
@@ -6487,7 +7614,7 @@
         <v>5</v>
       </c>
       <c r="Q91">
-        <f>((N91-M91)-1)/O91</f>
+        <f t="shared" si="10"/>
         <v>1.4615384615384615</v>
       </c>
       <c r="S91">
@@ -6503,7 +7630,7 @@
         <v>5</v>
       </c>
       <c r="W91">
-        <f>((T91-S91)-1)/U91</f>
+        <f t="shared" si="11"/>
         <v>1.4615384615384615</v>
       </c>
     </row>
@@ -6521,7 +7648,7 @@
         <v>6</v>
       </c>
       <c r="E92">
-        <f>((B92/A92)-1)/C92</f>
+        <f t="shared" si="8"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="G92">
@@ -6537,7 +7664,7 @@
         <v>6</v>
       </c>
       <c r="K92">
-        <f>((H92/G92)-1)/I92</f>
+        <f t="shared" si="9"/>
         <v>0.10256410256410257</v>
       </c>
       <c r="M92">
@@ -6553,7 +7680,7 @@
         <v>5</v>
       </c>
       <c r="Q92">
-        <f>((N92-M92)-1)/O92</f>
+        <f t="shared" si="10"/>
         <v>1.4615384615384615</v>
       </c>
       <c r="S92">
@@ -6569,7 +7696,7 @@
         <v>5</v>
       </c>
       <c r="W92">
-        <f>((T92-S92)-1)/U92</f>
+        <f t="shared" si="11"/>
         <v>1.4615384615384615</v>
       </c>
     </row>
@@ -6580,14 +7707,14 @@
       <c r="B93">
         <v>30</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="1">
         <v>7</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E93">
-        <f>((B93/A93)-1)/C93</f>
+        <f t="shared" si="8"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="G93">
@@ -6603,7 +7730,7 @@
         <v>5</v>
       </c>
       <c r="K93">
-        <f>((H93/G93)-1)/I93</f>
+        <f t="shared" si="9"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="M93">
@@ -6612,14 +7739,14 @@
       <c r="N93">
         <v>30</v>
       </c>
-      <c r="O93" s="2">
+      <c r="O93" s="1">
         <v>7</v>
       </c>
-      <c r="P93" s="2" t="s">
+      <c r="P93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Q93">
-        <f>((N93-M93)-1)/O93</f>
+        <f t="shared" si="10"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="S93">
@@ -6628,14 +7755,14 @@
       <c r="T93">
         <v>30</v>
       </c>
-      <c r="U93" s="2">
+      <c r="U93" s="1">
         <v>7</v>
       </c>
-      <c r="V93" s="2" t="s">
+      <c r="V93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="W93">
-        <f>((T93-S93)-1)/U93</f>
+        <f t="shared" si="11"/>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -6653,7 +7780,7 @@
         <v>5</v>
       </c>
       <c r="E94">
-        <f>((B94/A94)-1)/C94</f>
+        <f t="shared" si="8"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="G94">
@@ -6669,7 +7796,7 @@
         <v>5</v>
       </c>
       <c r="K94">
-        <f>((H94/G94)-1)/I94</f>
+        <f t="shared" si="9"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="M94">
@@ -6685,7 +7812,7 @@
         <v>5</v>
       </c>
       <c r="Q94">
-        <f>((N94-M94)-1)/O94</f>
+        <f t="shared" si="10"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="S94">
@@ -6701,7 +7828,7 @@
         <v>5</v>
       </c>
       <c r="W94">
-        <f>((T94-S94)-1)/U94</f>
+        <f t="shared" si="11"/>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -6719,7 +7846,7 @@
         <v>5</v>
       </c>
       <c r="E95">
-        <f>((B95/A95)-1)/C95</f>
+        <f t="shared" si="8"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="G95">
@@ -6735,7 +7862,7 @@
         <v>5</v>
       </c>
       <c r="K95">
-        <f>((H95/G95)-1)/I95</f>
+        <f t="shared" si="9"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="M95">
@@ -6751,7 +7878,7 @@
         <v>5</v>
       </c>
       <c r="Q95">
-        <f>((N95-M95)-1)/O95</f>
+        <f t="shared" si="10"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="S95">
@@ -6767,7 +7894,7 @@
         <v>5</v>
       </c>
       <c r="W95">
-        <f>((T95-S95)-1)/U95</f>
+        <f t="shared" si="11"/>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -6785,7 +7912,7 @@
         <v>5</v>
       </c>
       <c r="E96">
-        <f>((B96/A96)-1)/C96</f>
+        <f t="shared" si="8"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="G96">
@@ -6801,7 +7928,7 @@
         <v>5</v>
       </c>
       <c r="K96">
-        <f>((H96/G96)-1)/I96</f>
+        <f t="shared" si="9"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="M96">
@@ -6817,7 +7944,7 @@
         <v>5</v>
       </c>
       <c r="Q96">
-        <f>((N96-M96)-1)/O96</f>
+        <f t="shared" si="10"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="S96">
@@ -6833,7 +7960,7 @@
         <v>5</v>
       </c>
       <c r="W96">
-        <f>((T96-S96)-1)/U96</f>
+        <f t="shared" si="11"/>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -6851,7 +7978,7 @@
         <v>5</v>
       </c>
       <c r="E97">
-        <f>((B97/A97)-1)/C97</f>
+        <f t="shared" si="8"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="G97">
@@ -6867,7 +7994,7 @@
         <v>5</v>
       </c>
       <c r="K97">
-        <f>((H97/G97)-1)/I97</f>
+        <f t="shared" si="9"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="M97">
@@ -6883,7 +8010,7 @@
         <v>5</v>
       </c>
       <c r="Q97">
-        <f>((N97-M97)-1)/O97</f>
+        <f t="shared" si="10"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="S97">
@@ -6899,7 +8026,7 @@
         <v>5</v>
       </c>
       <c r="W97">
-        <f>((T97-S97)-1)/U97</f>
+        <f t="shared" si="11"/>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -6917,7 +8044,7 @@
         <v>5</v>
       </c>
       <c r="E98">
-        <f>((B98/A98)-1)/C98</f>
+        <f t="shared" si="8"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="G98">
@@ -6933,7 +8060,7 @@
         <v>5</v>
       </c>
       <c r="K98">
-        <f>((H98/G98)-1)/I98</f>
+        <f t="shared" si="9"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="M98">
@@ -6949,7 +8076,7 @@
         <v>5</v>
       </c>
       <c r="Q98">
-        <f>((N98-M98)-1)/O98</f>
+        <f t="shared" si="10"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="S98">
@@ -6965,7 +8092,7 @@
         <v>5</v>
       </c>
       <c r="W98">
-        <f>((T98-S98)-1)/U98</f>
+        <f t="shared" si="11"/>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -6983,7 +8110,7 @@
         <v>5</v>
       </c>
       <c r="E99">
-        <f>((B99/A99)-1)/C99</f>
+        <f t="shared" ref="E99:E107" si="12">((B99/A99)-1)/C99</f>
         <v>0.24675324675324672</v>
       </c>
       <c r="G99">
@@ -6999,7 +8126,7 @@
         <v>5</v>
       </c>
       <c r="K99">
-        <f>((H99/G99)-1)/I99</f>
+        <f t="shared" ref="K99:K107" si="13">((H99/G99)-1)/I99</f>
         <v>0.24675324675324672</v>
       </c>
       <c r="M99">
@@ -7015,7 +8142,7 @@
         <v>5</v>
       </c>
       <c r="Q99">
-        <f>((N99-M99)-1)/O99</f>
+        <f t="shared" ref="Q99:Q107" si="14">((N99-M99)-1)/O99</f>
         <v>2.5714285714285716</v>
       </c>
       <c r="S99">
@@ -7031,7 +8158,7 @@
         <v>5</v>
       </c>
       <c r="W99">
-        <f>((T99-S99)-1)/U99</f>
+        <f t="shared" ref="W99:W107" si="15">((T99-S99)-1)/U99</f>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -7049,7 +8176,7 @@
         <v>5</v>
       </c>
       <c r="E100">
-        <f>((B100/A100)-1)/C100</f>
+        <f t="shared" si="12"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="G100">
@@ -7065,7 +8192,7 @@
         <v>5</v>
       </c>
       <c r="K100">
-        <f>((H100/G100)-1)/I100</f>
+        <f t="shared" si="13"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="M100">
@@ -7081,7 +8208,7 @@
         <v>5</v>
       </c>
       <c r="Q100">
-        <f>((N100-M100)-1)/O100</f>
+        <f t="shared" si="14"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="S100">
@@ -7097,7 +8224,7 @@
         <v>5</v>
       </c>
       <c r="W100">
-        <f>((T100-S100)-1)/U100</f>
+        <f t="shared" si="15"/>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -7115,7 +8242,7 @@
         <v>5</v>
       </c>
       <c r="E101">
-        <f>((B101/A101)-1)/C101</f>
+        <f t="shared" si="12"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="G101">
@@ -7131,7 +8258,7 @@
         <v>5</v>
       </c>
       <c r="K101">
-        <f>((H101/G101)-1)/I101</f>
+        <f t="shared" si="13"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="M101">
@@ -7147,7 +8274,7 @@
         <v>5</v>
       </c>
       <c r="Q101">
-        <f>((N101-M101)-1)/O101</f>
+        <f t="shared" si="14"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="S101">
@@ -7163,7 +8290,7 @@
         <v>5</v>
       </c>
       <c r="W101">
-        <f>((T101-S101)-1)/U101</f>
+        <f t="shared" si="15"/>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -7181,7 +8308,7 @@
         <v>5</v>
       </c>
       <c r="E102">
-        <f>((B102/A102)-1)/C102</f>
+        <f t="shared" si="12"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="G102">
@@ -7197,7 +8324,7 @@
         <v>5</v>
       </c>
       <c r="K102">
-        <f>((H102/G102)-1)/I102</f>
+        <f t="shared" si="13"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="M102">
@@ -7213,7 +8340,7 @@
         <v>5</v>
       </c>
       <c r="Q102">
-        <f>((N102-M102)-1)/O102</f>
+        <f t="shared" si="14"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="S102">
@@ -7229,7 +8356,7 @@
         <v>5</v>
       </c>
       <c r="W102">
-        <f>((T102-S102)-1)/U102</f>
+        <f t="shared" si="15"/>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -7247,7 +8374,7 @@
         <v>5</v>
       </c>
       <c r="E103">
-        <f>((B103/A103)-1)/C103</f>
+        <f t="shared" si="12"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="G103">
@@ -7263,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="K103">
-        <f>((H103/G103)-1)/I103</f>
+        <f t="shared" si="13"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="M103">
@@ -7279,7 +8406,7 @@
         <v>5</v>
       </c>
       <c r="Q103">
-        <f>((N103-M103)-1)/O103</f>
+        <f t="shared" si="14"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="S103">
@@ -7295,7 +8422,7 @@
         <v>5</v>
       </c>
       <c r="W103">
-        <f>((T103-S103)-1)/U103</f>
+        <f t="shared" si="15"/>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -7313,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="E104">
-        <f>((B104/A104)-1)/C104</f>
+        <f t="shared" si="12"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="G104">
@@ -7329,7 +8456,7 @@
         <v>6</v>
       </c>
       <c r="K104">
-        <f>((H104/G104)-1)/I104</f>
+        <f t="shared" si="13"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="M104">
@@ -7345,7 +8472,7 @@
         <v>5</v>
       </c>
       <c r="Q104">
-        <f>((N104-M104)-1)/O104</f>
+        <f t="shared" si="14"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="S104">
@@ -7361,7 +8488,7 @@
         <v>5</v>
       </c>
       <c r="W104">
-        <f>((T104-S104)-1)/U104</f>
+        <f t="shared" si="15"/>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -7379,7 +8506,7 @@
         <v>5</v>
       </c>
       <c r="E105">
-        <f>((B105/A105)-1)/C105</f>
+        <f t="shared" si="12"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="G105">
@@ -7395,7 +8522,7 @@
         <v>6</v>
       </c>
       <c r="K105">
-        <f>((H105/G105)-1)/I105</f>
+        <f t="shared" si="13"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="M105">
@@ -7411,7 +8538,7 @@
         <v>5</v>
       </c>
       <c r="Q105">
-        <f>((N105-M105)-1)/O105</f>
+        <f t="shared" si="14"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="S105">
@@ -7427,7 +8554,7 @@
         <v>5</v>
       </c>
       <c r="W105">
-        <f>((T105-S105)-1)/U105</f>
+        <f t="shared" si="15"/>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -7445,7 +8572,7 @@
         <v>5</v>
       </c>
       <c r="E106">
-        <f>((B106/A106)-1)/C106</f>
+        <f t="shared" si="12"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="G106">
@@ -7461,7 +8588,7 @@
         <v>6</v>
       </c>
       <c r="K106">
-        <f>((H106/G106)-1)/I106</f>
+        <f t="shared" si="13"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="M106">
@@ -7477,7 +8604,7 @@
         <v>5</v>
       </c>
       <c r="Q106">
-        <f>((N106-M106)-1)/O106</f>
+        <f t="shared" si="14"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="S106">
@@ -7493,7 +8620,7 @@
         <v>5</v>
       </c>
       <c r="W106">
-        <f>((T106-S106)-1)/U106</f>
+        <f t="shared" si="15"/>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -7511,7 +8638,7 @@
         <v>5</v>
       </c>
       <c r="E107">
-        <f>((B107/A107)-1)/C107</f>
+        <f t="shared" si="12"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="G107">
@@ -7527,7 +8654,7 @@
         <v>6</v>
       </c>
       <c r="K107">
-        <f>((H107/G107)-1)/I107</f>
+        <f t="shared" si="13"/>
         <v>0.24675324675324672</v>
       </c>
       <c r="M107">
@@ -7543,7 +8670,7 @@
         <v>6</v>
       </c>
       <c r="Q107">
-        <f>((N107-M107)-1)/O107</f>
+        <f t="shared" si="14"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="S107">
@@ -7559,7 +8686,7 @@
         <v>6</v>
       </c>
       <c r="W107">
-        <f>((T107-S107)-1)/U107</f>
+        <f t="shared" si="15"/>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -7569,47 +8696,85 @@
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="C111" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A112" s="6">
+      <c r="A112" s="4">
         <v>1</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="9">
         <f>GEOMEAN(E47:E48)</f>
         <v>3.9059177013573507E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="6">
+      <c r="C112" s="9">
+        <f>_xlfn.STDEV.S(E47:E48)</f>
+        <v>2.4932796100100036E-3</v>
+      </c>
+      <c r="D112" s="5">
+        <f>C112/2</f>
+        <v>1.2466398050050018E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
         <v>2</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="9">
         <f>GEOMEAN(K32:K33)</f>
         <v>1.5908799583173262E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="6">
+      <c r="C113" s="9">
+        <f>_xlfn.STDEV.S(K32:K33)</f>
+        <v>1.0740745731233976E-3</v>
+      </c>
+      <c r="D113" s="5">
+        <f>C113/2</f>
+        <v>5.3703728656169882E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
         <v>3</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="9">
         <f>GEOMEAN(Q17:Q18)</f>
         <v>1.9055398349167647E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="8">
+      <c r="C114" s="9">
+        <f>_xlfn.STDEV.S(Q17:Q18)</f>
+        <v>3.7229659866394114E-2</v>
+      </c>
+      <c r="D114" s="5">
+        <f>C114/2</f>
+        <v>1.8614829933197057E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="6">
         <v>4</v>
       </c>
-      <c r="B115" s="9">
+      <c r="B115" s="11">
         <f>GEOMEAN(W17:W18)</f>
         <v>1.9055398349167647E-2</v>
+      </c>
+      <c r="C115" s="11">
+        <f>_xlfn.STDEV.S(W17:W18)</f>
+        <v>3.7229659866394114E-2</v>
+      </c>
+      <c r="D115" s="7">
+        <f>C115/2</f>
+        <v>1.8614829933197057E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7623,5 +8788,6 @@
     <mergeCell ref="S1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>